--- a/docs/2022年数字汽车大赛创新组赛题二数据说明/赛题二-数据字段-20220627.xlsx
+++ b/docs/2022年数字汽车大赛创新组赛题二数据说明/赛题二-数据字段-20220627.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhonghuan\Desktop\2022年数字汽车大赛赛题及数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFCB1DF-43BE-428D-BDEF-7D6CC3051621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28500" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="数据要求和字段" sheetId="1" r:id="rId1"/>
@@ -48,7 +42,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>车辆</t>
@@ -58,7 +51,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -87,7 +80,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x01</t>
     </r>
@@ -96,7 +89,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：车辆启动状态；</t>
@@ -106,7 +98,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x02</t>
     </r>
@@ -115,7 +107,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：熄火；</t>
@@ -125,7 +116,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x03</t>
     </r>
@@ -134,7 +125,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：其他状态；</t>
@@ -144,7 +134,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -153,7 +143,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -163,7 +152,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -172,7 +161,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -190,7 +178,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x01</t>
     </r>
@@ -199,7 +187,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：停车充电；</t>
@@ -209,7 +196,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x02</t>
     </r>
@@ -218,7 +205,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：行驶充电；</t>
@@ -228,7 +214,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x03</t>
     </r>
@@ -237,7 +223,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：未充电状态；</t>
@@ -247,7 +232,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0x04</t>
     </r>
@@ -256,7 +241,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：充电完成；</t>
@@ -266,7 +250,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -275,7 +259,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -285,7 +268,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -294,7 +277,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -312,7 +294,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0x01: </t>
     </r>
@@ -321,7 +303,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>纯电；</t>
@@ -331,7 +312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0x02</t>
     </r>
@@ -340,7 +321,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：混动；</t>
@@ -350,7 +330,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0x03</t>
     </r>
@@ -359,7 +339,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：燃油；</t>
@@ -369,7 +348,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0xFE </t>
     </r>
@@ -378,7 +357,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常；</t>
@@ -388,7 +366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0xFF </t>
     </r>
@@ -397,7 +375,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -415,7 +392,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -425,7 +401,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -434,7 +410,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -444,7 +419,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2200</t>
     </r>
@@ -453,7 +428,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -463,7 +437,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0 km/h</t>
     </r>
@@ -472,7 +446,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -482,7 +455,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>220 km/h</t>
     </r>
@@ -491,7 +464,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -501,7 +473,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0.1km/h</t>
     </r>
@@ -510,7 +482,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -520,7 +491,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFE”</t>
     </r>
@@ -529,7 +500,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -539,7 +509,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFF”</t>
     </r>
@@ -548,7 +518,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -575,7 +544,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -585,7 +553,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
@@ -594,7 +562,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -604,7 +571,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>10000</t>
     </r>
@@ -613,7 +580,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -623,7 +589,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0V</t>
     </r>
@@ -632,7 +598,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -642,7 +607,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1000V</t>
     </r>
@@ -651,7 +616,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -661,7 +625,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0.1V</t>
     </r>
@@ -670,7 +634,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -680,7 +643,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFE”</t>
     </r>
@@ -689,7 +652,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -699,7 +661,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFF”</t>
     </r>
@@ -708,7 +670,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -726,7 +687,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -736,7 +696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
@@ -745,7 +705,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -755,7 +714,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>20000</t>
     </r>
@@ -764,7 +723,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（偏移量</t>
@@ -774,7 +732,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1000A</t>
     </r>
@@ -783,7 +741,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，表示</t>
@@ -793,7 +750,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>-1000A</t>
     </r>
@@ -802,7 +759,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -812,7 +768,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+1000A</t>
     </r>
@@ -821,7 +777,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -831,7 +786,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0.1A</t>
     </r>
@@ -840,7 +795,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -850,7 +804,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFE”</t>
     </r>
@@ -859,7 +813,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -869,7 +822,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFF”</t>
     </r>
@@ -878,7 +831,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效。</t>
@@ -896,7 +848,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -906,7 +857,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -915,7 +866,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -925,7 +875,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>9999999</t>
     </r>
@@ -934,7 +884,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -944,7 +893,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0km</t>
     </r>
@@ -953,7 +902,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -963,7 +911,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>999999.9km</t>
     </r>
@@ -972,7 +920,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -982,7 +929,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0.1km</t>
     </r>
@@ -991,7 +938,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1001,7 +947,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF, 0xFF, 0xFF,0xFE”</t>
     </r>
@@ -1010,7 +956,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1020,7 +965,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF,0xFF,0xFF,0xFF”</t>
     </r>
@@ -1029,7 +974,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1044,7 +988,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>SOC-</t>
     </r>
@@ -1053,7 +997,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>国标</t>
@@ -1065,7 +1008,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1075,7 +1017,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1084,7 +1026,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1094,7 +1035,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>100</t>
     </r>
@@ -1103,7 +1044,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -1113,7 +1053,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0%</t>
     </r>
@@ -1122,7 +1062,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1132,7 +1071,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>100%</t>
     </r>
@@ -1141,7 +1080,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -1151,7 +1089,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1%</t>
     </r>
@@ -1160,7 +1098,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1170,7 +1107,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -1179,7 +1116,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1189,7 +1125,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -1198,7 +1134,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1216,7 +1151,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值：</t>
@@ -1226,7 +1160,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0~15000</t>
     </r>
@@ -1235,7 +1169,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，单位</t>
@@ -1245,7 +1178,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0.001V</t>
     </r>
@@ -1271,7 +1204,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1281,7 +1213,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1290,7 +1222,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1300,7 +1231,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>15 000</t>
     </r>
@@ -1309,7 +1240,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -1319,7 +1249,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0V</t>
     </r>
@@ -1328,7 +1258,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1338,7 +1267,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>15V</t>
     </r>
@@ -1347,7 +1276,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -1357,7 +1285,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0.001V</t>
     </r>
@@ -1366,7 +1294,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1376,7 +1303,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE</t>
     </r>
@@ -1385,7 +1312,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1395,7 +1321,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0xFE”</t>
     </r>
@@ -1404,7 +1330,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1414,7 +1339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">“0xFF </t>
     </r>
@@ -1423,7 +1348,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1433,7 +1357,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0xFF”</t>
     </r>
@@ -1442,7 +1366,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1460,7 +1383,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1470,7 +1392,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -1479,7 +1401,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1489,7 +1410,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>250</t>
     </r>
@@ -1498,7 +1419,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1508,7 +1428,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -1517,7 +1437,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1527,7 +1446,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -1536,7 +1455,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效。</t>
@@ -1554,7 +1472,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1564,7 +1481,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1573,7 +1490,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1583,7 +1499,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>250</t>
     </r>
@@ -1592,7 +1508,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1602,7 +1517,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -1611,7 +1526,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1621,7 +1535,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -1630,7 +1544,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1648,7 +1561,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1658,7 +1570,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1667,7 +1579,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1677,7 +1588,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>15 000</t>
     </r>
@@ -1686,7 +1597,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（表示</t>
@@ -1696,7 +1606,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0V</t>
     </r>
@@ -1705,7 +1615,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1715,7 +1624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>15V</t>
     </r>
@@ -1724,7 +1633,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -1734,7 +1642,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0.001V</t>
     </r>
@@ -1743,7 +1651,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1753,7 +1660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF</t>
     </r>
@@ -1762,7 +1669,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1772,7 +1678,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0xFE”</t>
     </r>
@@ -1781,7 +1687,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1791,7 +1696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">“0xFF </t>
     </r>
@@ -1800,7 +1705,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1810,7 +1714,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0xFF”</t>
     </r>
@@ -1819,7 +1723,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1837,7 +1740,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效值范围：</t>
@@ -1847,7 +1749,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -1856,7 +1758,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1866,7 +1767,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>250</t>
     </r>
@@ -1875,7 +1776,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1885,7 +1785,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -1894,7 +1794,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -1904,7 +1803,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -1913,7 +1812,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
@@ -1933,13 +1831,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>有效值范围：</t>
     </r>
     <r>
@@ -1947,7 +1838,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1956,7 +1847,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -1966,7 +1856,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>250</t>
     </r>
@@ -1975,7 +1865,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（数值偏移量</t>
@@ -1985,7 +1874,308 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），最小计量单元：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效</t>
+    </r>
+  </si>
+  <si>
+    <t>max_temp_probe_id</t>
+  </si>
+  <si>
+    <t>最高温度探针</t>
+  </si>
+  <si>
+    <t>min_temp_num</t>
+  </si>
+  <si>
+    <t>最低温度子系统号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效值范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效</t>
+    </r>
+  </si>
+  <si>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>最低温度值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效值范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（数值偏移量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>40℃</t>
     </r>
@@ -1994,7 +2184,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，表示</t>
@@ -2004,7 +2193,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>-40℃</t>
     </r>
@@ -2013,7 +2202,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -2023,7 +2211,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>210℃</t>
     </r>
@@ -2032,7 +2220,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），最小计量单元：</t>
@@ -2042,7 +2229,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1℃</t>
     </r>
@@ -2051,7 +2238,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2061,7 +2247,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFE”</t>
     </r>
@@ -2070,7 +2256,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -2080,7 +2265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“0xFF”</t>
     </r>
@@ -2089,31 +2274,519 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
     </r>
   </si>
   <si>
-    <t>max_temp_probe_id</t>
-  </si>
-  <si>
-    <t>最高温度探针</t>
-  </si>
-  <si>
-    <t>min_temp_num</t>
-  </si>
-  <si>
-    <t>最低温度子系统号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+    <t>min_temp_probe_id</t>
+  </si>
+  <si>
+    <t>最低温度探针</t>
+  </si>
+  <si>
+    <t>sing_temp_num</t>
+  </si>
+  <si>
+    <t>单体电池温度探针总数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个温度探针，有效值范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>65531</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF,0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF,0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效</t>
+    </r>
+  </si>
+  <si>
+    <t>cell_temp_list</t>
+  </si>
+  <si>
+    <t>单体电池温度值列表</t>
+  </si>
+  <si>
+    <r>
+      <t>有效值范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">250 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（数值偏移量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），最小计量单元：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效</t>
+    </r>
+  </si>
+  <si>
+    <t>max_alarm_lvl</t>
+  </si>
+  <si>
+    <t>最高报警等级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为当前发生的故障中的最高等级值，有限制范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无故障；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“1”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级故障，指不影响车辆正常行驶的故障；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“2”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级故障，指影响车辆性能，需要驾驶员限制行驶的故障；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“3”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级故障，为最高级别故障，指驾驶员应立即停车处理或请求救援的故障。具体等级对应的故障内容由厂商自行定义。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效</t>
+    </r>
+  </si>
+  <si>
+    <t>bat_fault_list</t>
+  </si>
+  <si>
+    <t>充电储能装置故障代码列表</t>
+  </si>
+  <si>
+    <r>
+      <t>扩展性数据，由厂商自行定义，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2122,17 +2795,285 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效值范围：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置故障个数等于可充电储能装置故障总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> N1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>isulate_r</t>
+  </si>
+  <si>
+    <t>绝缘阻值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0KΩ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60000KΩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），最小计量单元：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1KΩ</t>
+    </r>
+  </si>
+  <si>
+    <t>dcdc_stat</t>
+  </si>
+  <si>
+    <r>
+      <t>DC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断开，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示异常，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示无效。</t>
+    </r>
+  </si>
+  <si>
+    <t>sing_volt_num</t>
+  </si>
+  <si>
+    <t>单体电池总数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个电池单体，有效值范围：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2141,7 +3082,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>～</t>
@@ -2151,16 +3091,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>250</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>65531</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2170,16 +3109,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF,0xFE”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表示异常，</t>
@@ -2189,911 +3127,21 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“0xFF,0xFF”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>表示无效</t>
     </r>
   </si>
   <si>
-    <t>min_temp</t>
-  </si>
-  <si>
-    <t>最低温度值</t>
-  </si>
-  <si>
-    <t>min_temp_probe_id</t>
-  </si>
-  <si>
-    <t>最低温度探针</t>
-  </si>
-  <si>
-    <t>sing_temp_num</t>
-  </si>
-  <si>
-    <t>单体电池温度探针总数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">N </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个温度探针，有效值范围：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>65531</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF,0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示异常，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF,0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无效</t>
-    </r>
-  </si>
-  <si>
-    <t>cell_temp_list</t>
-  </si>
-  <si>
-    <t>单体电池温度值列表</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效值范围：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">250 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数值偏移量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 40℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-40℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+210℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），最小计量单元：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示异常，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无效</t>
-    </r>
-  </si>
-  <si>
-    <t>max_alarm_lvl</t>
-  </si>
-  <si>
-    <t>最高报警等级</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为当前发生的故障中的最高等级值，有限制范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0~3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无故障；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“1”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级故障，指不影响车辆正常行驶的故障；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“2”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级故障，指影响车辆性能，需要驾驶员限制行驶的故障；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“3”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级故障，为最高级别故障，指驾驶员应立即停车处理或请求救援的故障。具体等级对应的故障内容由厂商自行定义。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示异常，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无效</t>
-    </r>
-  </si>
-  <si>
-    <t>bat_fault_list</t>
-  </si>
-  <si>
-    <t>充电储能装置故障代码列表</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展性数据，由厂商自行定义，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可充电储能装置故障个数等于可充电储能装置故障总数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> N1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>isulate_r</t>
-  </si>
-  <si>
-    <t>绝缘阻值</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0KΩ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60000KΩ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），最小计量单元：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1KΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>dcdc_stat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DC-DC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>断开，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示异常，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无效。</t>
-    </r>
-  </si>
-  <si>
-    <t>sing_volt_num</t>
-  </si>
-  <si>
-    <t>单体电池总数</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">N </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个电池单体，有效值范围：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>65531</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF,0xFE”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示异常，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“0xFF,0xFF”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示无效</t>
-    </r>
-  </si>
-  <si>
     <t>alarm_info</t>
   </si>
   <si>
@@ -3105,7 +3153,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用报警标志位定义见表</t>
@@ -3115,7 +3162,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -3174,16 +3221,16 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">位用 </t>
+      <t>位用</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -3200,19 +3247,10 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>： 有驱动力</t>
+      <t>预留，预留</t>
     </r>
     <r>
       <rPr>
@@ -3228,10 +3266,19 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">位用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
     </r>
     <r>
       <rPr>
@@ -3240,7 +3287,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>： 无驱动力</t>
+      <t>表示</t>
     </r>
   </si>
   <si>
@@ -3249,7 +3296,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3260,7 +3307,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>： 有制动力</t>
+      <t>： 有驱动力</t>
     </r>
     <r>
       <rPr>
@@ -3277,7 +3324,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3288,130 +3335,41 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
+      <t>： 无驱动力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">： 有制动力
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>： 无制动力</t>
     </r>
-  </si>
-  <si>
-    <t>通用报警标志位定义</t>
-  </si>
-  <si>
-    <t>位</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>处理说明</t>
-  </si>
-  <si>
-    <t>1：温度差异报警；0：正常</t>
-  </si>
-  <si>
-    <t>标志维持到报警条件解除</t>
-  </si>
-  <si>
-    <t>1：电池高温报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：车载储能装置类型过压报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：车载储能装置类型欠压报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：SOC低报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：单体电池过压报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：单体电池欠压报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：SOC过高报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：SOC跳变报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：可充电储能系统不匹配报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：电池单体一致性差报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：绝缘报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：DC-DC温度报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：制动系统报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：DC-DC状态报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：驱动电机控制器温度报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：高压互锁状态报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：驱动电机温度报警；0：正常</t>
-  </si>
-  <si>
-    <t>1：车载储能装置类型过充；0：正常</t>
-  </si>
-  <si>
-    <t>19~31</t>
-  </si>
-  <si>
-    <t>预留</t>
-  </si>
-  <si>
-    <t>车载储能装置类型代码</t>
-  </si>
-  <si>
-    <t>磷酸铁锂电池</t>
-  </si>
-  <si>
-    <t>锰酸锂电池</t>
-  </si>
-  <si>
-    <t>钴酸锂电池</t>
-  </si>
-  <si>
-    <t>三元材料电池</t>
-  </si>
-  <si>
-    <t>聚合物锂离子电池</t>
-  </si>
-  <si>
-    <t>超级电容</t>
-  </si>
-  <si>
-    <t>钛酸锂电池</t>
-  </si>
-  <si>
-    <t>燃料电池</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>其他车载储能装置</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>车载储能装置类型代码</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>车载储能装置类型</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>挡位：                                              =0000 空挡
@@ -3424,57 +3382,136 @@
 =1101 倒挡
 =1110 自动 D 挡
 =1111 停车 P 挡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>预留，预留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用报警标志位定义</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>处理说明</t>
+  </si>
+  <si>
+    <t>1：温度差异报警；0：正常</t>
+  </si>
+  <si>
+    <t>标志维持到报警条件解除</t>
+  </si>
+  <si>
+    <t>1：电池高温报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：车载储能装置类型过压报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：车载储能装置类型欠压报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：SOC低报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：单体电池过压报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：单体电池欠压报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：SOC过高报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：SOC跳变报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：可充电储能系统不匹配报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：电池单体一致性差报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：绝缘报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：DC-DC温度报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：制动系统报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：DC-DC状态报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：驱动电机控制器温度报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：高压互锁状态报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：驱动电机温度报警；0：正常</t>
+  </si>
+  <si>
+    <t>1：车载储能装置类型过充；0：正常</t>
+  </si>
+  <si>
+    <t>19~31</t>
+  </si>
+  <si>
+    <t>预留</t>
+  </si>
+  <si>
+    <t>车载储能装置类型代码</t>
+  </si>
+  <si>
+    <t>车载储能装置类型</t>
+  </si>
+  <si>
+    <t>磷酸铁锂电池</t>
+  </si>
+  <si>
+    <t>锰酸锂电池</t>
+  </si>
+  <si>
+    <t>钴酸锂电池</t>
+  </si>
+  <si>
+    <t>三元材料电池</t>
+  </si>
+  <si>
+    <t>聚合物锂离子电池</t>
+  </si>
+  <si>
+    <t>超级电容</t>
+  </si>
+  <si>
+    <t>钛酸锂电池</t>
+  </si>
+  <si>
+    <t>燃料电池</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>其他车载储能装置</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3498,21 +3535,25 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="TimesNewRomanPSMT"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3520,7 +3561,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3529,26 +3569,25 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimHei"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3557,21 +3596,175 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3580,12 +3773,228 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3594,81 +4003,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3782,7 +4116,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -3803,10 +4137,85 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -3848,165 +4257,447 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4264,491 +4955,494 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.54296875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.5384615384615" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.8173076923077" style="10" customWidth="1"/>
+    <col min="3" max="3" width="68.5384615384615" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="40" customHeight="1" spans="1:3">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:3">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:3">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="25" customHeight="1" spans="1:3">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="48" customHeight="1" spans="1:3">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" ht="32" customHeight="1" spans="1:3">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" ht="25" customHeight="1" spans="1:3">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" ht="33" customHeight="1" spans="1:3">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" ht="33" customHeight="1" spans="1:3">
+      <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:3">
+      <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" ht="30" customHeight="1" spans="1:3">
+      <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="35" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" ht="35" customHeight="1" spans="1:3">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" ht="30" customHeight="1" spans="1:3">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" ht="30" customHeight="1" spans="1:3">
+      <c r="A15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
+    <row r="16" ht="30" customHeight="1" spans="1:3">
+      <c r="A16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" ht="35" customHeight="1" spans="1:3">
+      <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" customHeight="1">
-      <c r="A18" s="41" t="s">
+    <row r="18" ht="25" customHeight="1" spans="1:5">
+      <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="45"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" ht="29" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" ht="29" customHeight="1" spans="1:5">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" ht="29" customHeight="1" spans="1:3">
+      <c r="A20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" customHeight="1">
-      <c r="A21" s="11" t="s">
+    <row r="21" ht="36" customHeight="1" spans="1:3">
+      <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1">
-      <c r="A22" s="41" t="s">
+    <row r="22" ht="16" customHeight="1" spans="1:5">
+      <c r="A22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="45"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="28" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:5">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" ht="28" customHeight="1" spans="1:3">
+      <c r="A24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" ht="32" customHeight="1" spans="1:3">
+      <c r="A25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1">
-      <c r="A26" s="41" t="s">
+    <row r="26" ht="23" customHeight="1" spans="1:5">
+      <c r="A26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" ht="25" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" ht="25" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" ht="25" customHeight="1" spans="1:5">
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" ht="25" customHeight="1" spans="1:3">
+      <c r="A28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42" customHeight="1">
-      <c r="A29" s="11" t="s">
+    <row r="29" ht="42" customHeight="1" spans="1:3">
+      <c r="A29" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1">
-      <c r="A30" s="41" t="s">
+      <c r="C29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="42" t="s">
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:5">
+      <c r="A30" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" ht="28" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:5">
+      <c r="A31" s="25"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" ht="35" customHeight="1" spans="1:3">
+      <c r="A32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="35" customHeight="1">
-      <c r="A33" s="11" t="s">
+      <c r="C32" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="12" t="s">
+    </row>
+    <row r="33" ht="35" customHeight="1" spans="1:3">
+      <c r="A33" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="C33" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="12" t="s">
+    </row>
+    <row r="34" ht="85" customHeight="1" spans="1:3">
+      <c r="A34" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="35" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="C34" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="12" t="s">
+    </row>
+    <row r="35" ht="35" customHeight="1" spans="1:3">
+      <c r="A35" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="33" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="C35" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="36" ht="33" customHeight="1" spans="1:3">
+      <c r="A36" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="33" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="C36" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="14" t="s">
+    </row>
+    <row r="37" ht="33" customHeight="1" spans="1:3">
+      <c r="A37" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="33" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="C37" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="17" t="s">
+    </row>
+    <row r="38" s="10" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A38" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="36" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="C38" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="12" t="s">
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:3">
+      <c r="A39" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
+      <c r="C39" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="17.55"/>
     <row r="42" spans="1:8">
-      <c r="A42" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
+      <c r="A42" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="E43" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="F43" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="G43" s="36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="143" customHeight="1">
-      <c r="A44" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="H43" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="24" t="s">
+    </row>
+    <row r="44" ht="143" customHeight="1" spans="1:8">
+      <c r="A44" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
+      <c r="C44" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="A18:A19"/>
@@ -4767,381 +5461,381 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.8173076923077" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" customHeight="1">
-      <c r="A3" s="2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:3">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1">
-      <c r="A4" s="2">
+      <c r="B3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1">
-      <c r="A5" s="2">
+      <c r="B4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:3">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
-      <c r="A6" s="2">
+      <c r="B5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:3">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:3">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1">
-      <c r="A8" s="2">
+      <c r="B7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:3">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1">
-      <c r="A9" s="2">
+      <c r="B8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:3">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1">
-      <c r="A10" s="2">
+      <c r="B9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:3">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1">
-      <c r="A11" s="2">
+      <c r="B10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:3">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1">
-      <c r="A12" s="2">
+      <c r="B11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:3">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1">
-      <c r="A13" s="2">
+      <c r="B12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:3">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1">
-      <c r="A14" s="2">
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:3">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1">
-      <c r="A15" s="2">
+      <c r="B14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:3">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
-      <c r="A16" s="2">
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:3">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1">
-      <c r="A17" s="2">
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:3">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1">
-      <c r="A18" s="2">
+      <c r="B17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:3">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1">
-      <c r="A19" s="2">
+      <c r="B18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:3">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1">
-      <c r="A20" s="2">
+      <c r="B19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:3">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1">
-      <c r="A21" s="2">
+      <c r="B20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:3">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>114</v>
+      <c r="B21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.7307692307692" customWidth="1"/>
+    <col min="2" max="2" width="27.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.5">
-      <c r="A2" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="47"/>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="2" ht="20.4" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" ht="21" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="21" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="21" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="21" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.5">
-      <c r="A6" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.5">
-      <c r="A7" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.5">
-      <c r="A9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.5">
-      <c r="A10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.5">
-      <c r="A11" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>146</v>
+    </row>
+    <row r="12" ht="26" customHeight="1" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>